--- a/in/jgr2013_2cam.xlsx
+++ b/in/jgr2013_2cam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
   <si>
     <t>Sim</t>
   </si>
@@ -519,9 +519,6 @@
     <t>FOVmaxLengthKM</t>
   </si>
   <si>
-    <t>circShift</t>
-  </si>
-  <si>
     <t>noiseStd</t>
   </si>
   <si>
@@ -558,12 +555,6 @@
     <t>plotMaxVal</t>
   </si>
   <si>
-    <t>taperCenterPixel</t>
-  </si>
-  <si>
-    <t>wTaper</t>
-  </si>
-  <si>
     <t>intensityScaleFactor</t>
   </si>
   <si>
@@ -609,7 +600,16 @@
     <t>Bepoch</t>
   </si>
   <si>
+    <t>2013-04-14T08:54:00Z</t>
+  </si>
+  <si>
     <t>cal1Dname</t>
+  </si>
+  <si>
+    <t>hst0cal.h5</t>
+  </si>
+  <si>
+    <t>hst1cal.h5</t>
   </si>
   <si>
     <t>Arc0</t>
@@ -832,11 +832,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -866,7 +865,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -968,13 +967,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
       <top/>
       <bottom style="hair"/>
       <diagonal/>
@@ -1005,7 +997,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1206,11 +1198,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1226,7 +1214,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1326,8 +1314,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
@@ -1962,12 +1950,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IR44"/>
+  <dimension ref="A1:IR41"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4061,7 +4049,12 @@
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="0"/>
+      <c r="B9" s="47" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="C9" s="47" t="n">
+        <v>100000000</v>
+      </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -4573,15 +4566,11 @@
       <c r="IR10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="47" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="C11" s="47" t="n">
-        <v>100000000</v>
-      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -4833,10 +4822,10 @@
       <c r="IR11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="0"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5092,7 +5081,7 @@
       <c r="A13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -5344,11 +5333,16 @@
       <c r="IQ13" s="0"/>
       <c r="IR13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="0"/>
+      <c r="B14" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="50" t="n">
+        <v>2</v>
+      </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -5599,12 +5593,12 @@
       <c r="IQ14" s="0"/>
       <c r="IR14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5856,10 +5850,11 @@
       <c r="IR15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6111,10 +6106,11 @@
       <c r="IR16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6366,11 +6362,11 @@
       <c r="IR17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -6622,10 +6618,9 @@
       <c r="IR18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="0"/>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6877,9 +6872,11 @@
       <c r="IR19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="57"/>
+      <c r="A20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7135,7 +7132,7 @@
         <v>90</v>
       </c>
       <c r="B21" s="48"/>
-      <c r="C21" s="57"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7390,8 +7387,8 @@
       <c r="A22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -8155,9 +8152,7 @@
       <c r="IR24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A25" s="0"/>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
@@ -8412,14 +8407,18 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
+        <v>94</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -8668,14 +8667,18 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
+        <v>95</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -8926,787 +8929,50 @@
       <c r="A28" s="0"/>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="0"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="0"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0"/>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
-      <c r="AB28" s="0"/>
-      <c r="AC28" s="0"/>
-      <c r="AD28" s="0"/>
-      <c r="AE28" s="0"/>
-      <c r="AF28" s="0"/>
-      <c r="AG28" s="0"/>
-      <c r="AH28" s="0"/>
-      <c r="AI28" s="0"/>
-      <c r="AJ28" s="0"/>
-      <c r="AK28" s="0"/>
-      <c r="AL28" s="0"/>
-      <c r="AM28" s="0"/>
-      <c r="AN28" s="0"/>
-      <c r="AO28" s="0"/>
-      <c r="AP28" s="0"/>
-      <c r="AQ28" s="0"/>
-      <c r="AR28" s="0"/>
-      <c r="AS28" s="0"/>
-      <c r="AT28" s="0"/>
-      <c r="AU28" s="0"/>
-      <c r="AV28" s="0"/>
-      <c r="AW28" s="0"/>
-      <c r="AX28" s="0"/>
-      <c r="AY28" s="0"/>
-      <c r="AZ28" s="0"/>
-      <c r="BA28" s="0"/>
-      <c r="BB28" s="0"/>
-      <c r="BC28" s="0"/>
-      <c r="BD28" s="0"/>
-      <c r="BE28" s="0"/>
-      <c r="BF28" s="0"/>
-      <c r="BG28" s="0"/>
-      <c r="BH28" s="0"/>
-      <c r="BI28" s="0"/>
-      <c r="BJ28" s="0"/>
-      <c r="BK28" s="0"/>
-      <c r="BL28" s="0"/>
-      <c r="BM28" s="0"/>
-      <c r="BN28" s="0"/>
-      <c r="BO28" s="0"/>
-      <c r="BP28" s="0"/>
-      <c r="BQ28" s="0"/>
-      <c r="BR28" s="0"/>
-      <c r="BS28" s="0"/>
-      <c r="BT28" s="0"/>
-      <c r="BU28" s="0"/>
-      <c r="BV28" s="0"/>
-      <c r="BW28" s="0"/>
-      <c r="BX28" s="0"/>
-      <c r="BY28" s="0"/>
-      <c r="BZ28" s="0"/>
-      <c r="CA28" s="0"/>
-      <c r="CB28" s="0"/>
-      <c r="CC28" s="0"/>
-      <c r="CD28" s="0"/>
-      <c r="CE28" s="0"/>
-      <c r="CF28" s="0"/>
-      <c r="CG28" s="0"/>
-      <c r="CH28" s="0"/>
-      <c r="CI28" s="0"/>
-      <c r="CJ28" s="0"/>
-      <c r="CK28" s="0"/>
-      <c r="CL28" s="0"/>
-      <c r="CM28" s="0"/>
-      <c r="CN28" s="0"/>
-      <c r="CO28" s="0"/>
-      <c r="CP28" s="0"/>
-      <c r="CQ28" s="0"/>
-      <c r="CR28" s="0"/>
-      <c r="CS28" s="0"/>
-      <c r="CT28" s="0"/>
-      <c r="CU28" s="0"/>
-      <c r="CV28" s="0"/>
-      <c r="CW28" s="0"/>
-      <c r="CX28" s="0"/>
-      <c r="CY28" s="0"/>
-      <c r="CZ28" s="0"/>
-      <c r="DA28" s="0"/>
-      <c r="DB28" s="0"/>
-      <c r="DC28" s="0"/>
-      <c r="DD28" s="0"/>
-      <c r="DE28" s="0"/>
-      <c r="DF28" s="0"/>
-      <c r="DG28" s="0"/>
-      <c r="DH28" s="0"/>
-      <c r="DI28" s="0"/>
-      <c r="DJ28" s="0"/>
-      <c r="DK28" s="0"/>
-      <c r="DL28" s="0"/>
-      <c r="DM28" s="0"/>
-      <c r="DN28" s="0"/>
-      <c r="DO28" s="0"/>
-      <c r="DP28" s="0"/>
-      <c r="DQ28" s="0"/>
-      <c r="DR28" s="0"/>
-      <c r="DS28" s="0"/>
-      <c r="DT28" s="0"/>
-      <c r="DU28" s="0"/>
-      <c r="DV28" s="0"/>
-      <c r="DW28" s="0"/>
-      <c r="DX28" s="0"/>
-      <c r="DY28" s="0"/>
-      <c r="DZ28" s="0"/>
-      <c r="EA28" s="0"/>
-      <c r="EB28" s="0"/>
-      <c r="EC28" s="0"/>
-      <c r="ED28" s="0"/>
-      <c r="EE28" s="0"/>
-      <c r="EF28" s="0"/>
-      <c r="EG28" s="0"/>
-      <c r="EH28" s="0"/>
-      <c r="EI28" s="0"/>
-      <c r="EJ28" s="0"/>
-      <c r="EK28" s="0"/>
-      <c r="EL28" s="0"/>
-      <c r="EM28" s="0"/>
-      <c r="EN28" s="0"/>
-      <c r="EO28" s="0"/>
-      <c r="EP28" s="0"/>
-      <c r="EQ28" s="0"/>
-      <c r="ER28" s="0"/>
-      <c r="ES28" s="0"/>
-      <c r="ET28" s="0"/>
-      <c r="EU28" s="0"/>
-      <c r="EV28" s="0"/>
-      <c r="EW28" s="0"/>
-      <c r="EX28" s="0"/>
-      <c r="EY28" s="0"/>
-      <c r="EZ28" s="0"/>
-      <c r="FA28" s="0"/>
-      <c r="FB28" s="0"/>
-      <c r="FC28" s="0"/>
-      <c r="FD28" s="0"/>
-      <c r="FE28" s="0"/>
-      <c r="FF28" s="0"/>
-      <c r="FG28" s="0"/>
-      <c r="FH28" s="0"/>
-      <c r="FI28" s="0"/>
-      <c r="FJ28" s="0"/>
-      <c r="FK28" s="0"/>
-      <c r="FL28" s="0"/>
-      <c r="FM28" s="0"/>
-      <c r="FN28" s="0"/>
-      <c r="FO28" s="0"/>
-      <c r="FP28" s="0"/>
-      <c r="FQ28" s="0"/>
-      <c r="FR28" s="0"/>
-      <c r="FS28" s="0"/>
-      <c r="FT28" s="0"/>
-      <c r="FU28" s="0"/>
-      <c r="FV28" s="0"/>
-      <c r="FW28" s="0"/>
-      <c r="FX28" s="0"/>
-      <c r="FY28" s="0"/>
-      <c r="FZ28" s="0"/>
-      <c r="GA28" s="0"/>
-      <c r="GB28" s="0"/>
-      <c r="GC28" s="0"/>
-      <c r="GD28" s="0"/>
-      <c r="GE28" s="0"/>
-      <c r="GF28" s="0"/>
-      <c r="GG28" s="0"/>
-      <c r="GH28" s="0"/>
-      <c r="GI28" s="0"/>
-      <c r="GJ28" s="0"/>
-      <c r="GK28" s="0"/>
-      <c r="GL28" s="0"/>
-      <c r="GM28" s="0"/>
-      <c r="GN28" s="0"/>
-      <c r="GO28" s="0"/>
-      <c r="GP28" s="0"/>
-      <c r="GQ28" s="0"/>
-      <c r="GR28" s="0"/>
-      <c r="GS28" s="0"/>
-      <c r="GT28" s="0"/>
-      <c r="GU28" s="0"/>
-      <c r="GV28" s="0"/>
-      <c r="GW28" s="0"/>
-      <c r="GX28" s="0"/>
-      <c r="GY28" s="0"/>
-      <c r="GZ28" s="0"/>
-      <c r="HA28" s="0"/>
-      <c r="HB28" s="0"/>
-      <c r="HC28" s="0"/>
-      <c r="HD28" s="0"/>
-      <c r="HE28" s="0"/>
-      <c r="HF28" s="0"/>
-      <c r="HG28" s="0"/>
-      <c r="HH28" s="0"/>
-      <c r="HI28" s="0"/>
-      <c r="HJ28" s="0"/>
-      <c r="HK28" s="0"/>
-      <c r="HL28" s="0"/>
-      <c r="HM28" s="0"/>
-      <c r="HN28" s="0"/>
-      <c r="HO28" s="0"/>
-      <c r="HP28" s="0"/>
-      <c r="HQ28" s="0"/>
-      <c r="HR28" s="0"/>
-      <c r="HS28" s="0"/>
-      <c r="HT28" s="0"/>
-      <c r="HU28" s="0"/>
-      <c r="HV28" s="0"/>
-      <c r="HW28" s="0"/>
-      <c r="HX28" s="0"/>
-      <c r="HY28" s="0"/>
-      <c r="HZ28" s="0"/>
-      <c r="IA28" s="0"/>
-      <c r="IB28" s="0"/>
-      <c r="IC28" s="0"/>
-      <c r="ID28" s="0"/>
-      <c r="IE28" s="0"/>
-      <c r="IF28" s="0"/>
-      <c r="IG28" s="0"/>
-      <c r="IH28" s="0"/>
-      <c r="II28" s="0"/>
-      <c r="IJ28" s="0"/>
-      <c r="IK28" s="0"/>
-      <c r="IL28" s="0"/>
-      <c r="IM28" s="0"/>
-      <c r="IN28" s="0"/>
-      <c r="IO28" s="0"/>
-      <c r="IP28" s="0"/>
-      <c r="IQ28" s="0"/>
-      <c r="IR28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="0"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="0"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0"/>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
-      <c r="AB29" s="0"/>
-      <c r="AC29" s="0"/>
-      <c r="AD29" s="0"/>
-      <c r="AE29" s="0"/>
-      <c r="AF29" s="0"/>
-      <c r="AG29" s="0"/>
-      <c r="AH29" s="0"/>
-      <c r="AI29" s="0"/>
-      <c r="AJ29" s="0"/>
-      <c r="AK29" s="0"/>
-      <c r="AL29" s="0"/>
-      <c r="AM29" s="0"/>
-      <c r="AN29" s="0"/>
-      <c r="AO29" s="0"/>
-      <c r="AP29" s="0"/>
-      <c r="AQ29" s="0"/>
-      <c r="AR29" s="0"/>
-      <c r="AS29" s="0"/>
-      <c r="AT29" s="0"/>
-      <c r="AU29" s="0"/>
-      <c r="AV29" s="0"/>
-      <c r="AW29" s="0"/>
-      <c r="AX29" s="0"/>
-      <c r="AY29" s="0"/>
-      <c r="AZ29" s="0"/>
-      <c r="BA29" s="0"/>
-      <c r="BB29" s="0"/>
-      <c r="BC29" s="0"/>
-      <c r="BD29" s="0"/>
-      <c r="BE29" s="0"/>
-      <c r="BF29" s="0"/>
-      <c r="BG29" s="0"/>
-      <c r="BH29" s="0"/>
-      <c r="BI29" s="0"/>
-      <c r="BJ29" s="0"/>
-      <c r="BK29" s="0"/>
-      <c r="BL29" s="0"/>
-      <c r="BM29" s="0"/>
-      <c r="BN29" s="0"/>
-      <c r="BO29" s="0"/>
-      <c r="BP29" s="0"/>
-      <c r="BQ29" s="0"/>
-      <c r="BR29" s="0"/>
-      <c r="BS29" s="0"/>
-      <c r="BT29" s="0"/>
-      <c r="BU29" s="0"/>
-      <c r="BV29" s="0"/>
-      <c r="BW29" s="0"/>
-      <c r="BX29" s="0"/>
-      <c r="BY29" s="0"/>
-      <c r="BZ29" s="0"/>
-      <c r="CA29" s="0"/>
-      <c r="CB29" s="0"/>
-      <c r="CC29" s="0"/>
-      <c r="CD29" s="0"/>
-      <c r="CE29" s="0"/>
-      <c r="CF29" s="0"/>
-      <c r="CG29" s="0"/>
-      <c r="CH29" s="0"/>
-      <c r="CI29" s="0"/>
-      <c r="CJ29" s="0"/>
-      <c r="CK29" s="0"/>
-      <c r="CL29" s="0"/>
-      <c r="CM29" s="0"/>
-      <c r="CN29" s="0"/>
-      <c r="CO29" s="0"/>
-      <c r="CP29" s="0"/>
-      <c r="CQ29" s="0"/>
-      <c r="CR29" s="0"/>
-      <c r="CS29" s="0"/>
-      <c r="CT29" s="0"/>
-      <c r="CU29" s="0"/>
-      <c r="CV29" s="0"/>
-      <c r="CW29" s="0"/>
-      <c r="CX29" s="0"/>
-      <c r="CY29" s="0"/>
-      <c r="CZ29" s="0"/>
-      <c r="DA29" s="0"/>
-      <c r="DB29" s="0"/>
-      <c r="DC29" s="0"/>
-      <c r="DD29" s="0"/>
-      <c r="DE29" s="0"/>
-      <c r="DF29" s="0"/>
-      <c r="DG29" s="0"/>
-      <c r="DH29" s="0"/>
-      <c r="DI29" s="0"/>
-      <c r="DJ29" s="0"/>
-      <c r="DK29" s="0"/>
-      <c r="DL29" s="0"/>
-      <c r="DM29" s="0"/>
-      <c r="DN29" s="0"/>
-      <c r="DO29" s="0"/>
-      <c r="DP29" s="0"/>
-      <c r="DQ29" s="0"/>
-      <c r="DR29" s="0"/>
-      <c r="DS29" s="0"/>
-      <c r="DT29" s="0"/>
-      <c r="DU29" s="0"/>
-      <c r="DV29" s="0"/>
-      <c r="DW29" s="0"/>
-      <c r="DX29" s="0"/>
-      <c r="DY29" s="0"/>
-      <c r="DZ29" s="0"/>
-      <c r="EA29" s="0"/>
-      <c r="EB29" s="0"/>
-      <c r="EC29" s="0"/>
-      <c r="ED29" s="0"/>
-      <c r="EE29" s="0"/>
-      <c r="EF29" s="0"/>
-      <c r="EG29" s="0"/>
-      <c r="EH29" s="0"/>
-      <c r="EI29" s="0"/>
-      <c r="EJ29" s="0"/>
-      <c r="EK29" s="0"/>
-      <c r="EL29" s="0"/>
-      <c r="EM29" s="0"/>
-      <c r="EN29" s="0"/>
-      <c r="EO29" s="0"/>
-      <c r="EP29" s="0"/>
-      <c r="EQ29" s="0"/>
-      <c r="ER29" s="0"/>
-      <c r="ES29" s="0"/>
-      <c r="ET29" s="0"/>
-      <c r="EU29" s="0"/>
-      <c r="EV29" s="0"/>
-      <c r="EW29" s="0"/>
-      <c r="EX29" s="0"/>
-      <c r="EY29" s="0"/>
-      <c r="EZ29" s="0"/>
-      <c r="FA29" s="0"/>
-      <c r="FB29" s="0"/>
-      <c r="FC29" s="0"/>
-      <c r="FD29" s="0"/>
-      <c r="FE29" s="0"/>
-      <c r="FF29" s="0"/>
-      <c r="FG29" s="0"/>
-      <c r="FH29" s="0"/>
-      <c r="FI29" s="0"/>
-      <c r="FJ29" s="0"/>
-      <c r="FK29" s="0"/>
-      <c r="FL29" s="0"/>
-      <c r="FM29" s="0"/>
-      <c r="FN29" s="0"/>
-      <c r="FO29" s="0"/>
-      <c r="FP29" s="0"/>
-      <c r="FQ29" s="0"/>
-      <c r="FR29" s="0"/>
-      <c r="FS29" s="0"/>
-      <c r="FT29" s="0"/>
-      <c r="FU29" s="0"/>
-      <c r="FV29" s="0"/>
-      <c r="FW29" s="0"/>
-      <c r="FX29" s="0"/>
-      <c r="FY29" s="0"/>
-      <c r="FZ29" s="0"/>
-      <c r="GA29" s="0"/>
-      <c r="GB29" s="0"/>
-      <c r="GC29" s="0"/>
-      <c r="GD29" s="0"/>
-      <c r="GE29" s="0"/>
-      <c r="GF29" s="0"/>
-      <c r="GG29" s="0"/>
-      <c r="GH29" s="0"/>
-      <c r="GI29" s="0"/>
-      <c r="GJ29" s="0"/>
-      <c r="GK29" s="0"/>
-      <c r="GL29" s="0"/>
-      <c r="GM29" s="0"/>
-      <c r="GN29" s="0"/>
-      <c r="GO29" s="0"/>
-      <c r="GP29" s="0"/>
-      <c r="GQ29" s="0"/>
-      <c r="GR29" s="0"/>
-      <c r="GS29" s="0"/>
-      <c r="GT29" s="0"/>
-      <c r="GU29" s="0"/>
-      <c r="GV29" s="0"/>
-      <c r="GW29" s="0"/>
-      <c r="GX29" s="0"/>
-      <c r="GY29" s="0"/>
-      <c r="GZ29" s="0"/>
-      <c r="HA29" s="0"/>
-      <c r="HB29" s="0"/>
-      <c r="HC29" s="0"/>
-      <c r="HD29" s="0"/>
-      <c r="HE29" s="0"/>
-      <c r="HF29" s="0"/>
-      <c r="HG29" s="0"/>
-      <c r="HH29" s="0"/>
-      <c r="HI29" s="0"/>
-      <c r="HJ29" s="0"/>
-      <c r="HK29" s="0"/>
-      <c r="HL29" s="0"/>
-      <c r="HM29" s="0"/>
-      <c r="HN29" s="0"/>
-      <c r="HO29" s="0"/>
-      <c r="HP29" s="0"/>
-      <c r="HQ29" s="0"/>
-      <c r="HR29" s="0"/>
-      <c r="HS29" s="0"/>
-      <c r="HT29" s="0"/>
-      <c r="HU29" s="0"/>
-      <c r="HV29" s="0"/>
-      <c r="HW29" s="0"/>
-      <c r="HX29" s="0"/>
-      <c r="HY29" s="0"/>
-      <c r="HZ29" s="0"/>
-      <c r="IA29" s="0"/>
-      <c r="IB29" s="0"/>
-      <c r="IC29" s="0"/>
-      <c r="ID29" s="0"/>
-      <c r="IE29" s="0"/>
-      <c r="IF29" s="0"/>
-      <c r="IG29" s="0"/>
-      <c r="IH29" s="0"/>
-      <c r="II29" s="0"/>
-      <c r="IJ29" s="0"/>
-      <c r="IK29" s="0"/>
-      <c r="IL29" s="0"/>
-      <c r="IM29" s="0"/>
-      <c r="IN29" s="0"/>
-      <c r="IO29" s="0"/>
-      <c r="IP29" s="0"/>
-      <c r="IQ29" s="0"/>
-      <c r="IR29" s="0"/>
+        <v>96</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>512</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="0"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="0"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0"/>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
-      <c r="AB30" s="0"/>
-      <c r="AC30" s="0"/>
-      <c r="AD30" s="0"/>
-      <c r="AE30" s="0"/>
-      <c r="AF30" s="0"/>
-      <c r="AG30" s="0"/>
-      <c r="AH30" s="0"/>
-      <c r="AI30" s="0"/>
-      <c r="AJ30" s="0"/>
-      <c r="AK30" s="0"/>
-      <c r="AL30" s="0"/>
-      <c r="AM30" s="0"/>
-      <c r="AN30" s="0"/>
-      <c r="AO30" s="0"/>
-      <c r="AP30" s="0"/>
-      <c r="AQ30" s="0"/>
-      <c r="AR30" s="0"/>
-      <c r="AS30" s="0"/>
-      <c r="AT30" s="0"/>
-      <c r="AU30" s="0"/>
-      <c r="AV30" s="0"/>
-      <c r="AW30" s="0"/>
-      <c r="AX30" s="0"/>
-      <c r="AY30" s="0"/>
-      <c r="AZ30" s="0"/>
-      <c r="BA30" s="0"/>
-      <c r="BB30" s="0"/>
-      <c r="BC30" s="0"/>
-      <c r="BD30" s="0"/>
-      <c r="BE30" s="0"/>
-      <c r="BF30" s="0"/>
-      <c r="BG30" s="0"/>
-      <c r="BH30" s="0"/>
-      <c r="BI30" s="0"/>
-      <c r="BJ30" s="0"/>
-      <c r="BK30" s="0"/>
-      <c r="BL30" s="0"/>
-      <c r="BM30" s="0"/>
-      <c r="BN30" s="0"/>
-      <c r="BO30" s="0"/>
-      <c r="BP30" s="0"/>
-      <c r="BQ30" s="0"/>
-      <c r="BR30" s="0"/>
-      <c r="BS30" s="0"/>
-      <c r="BT30" s="0"/>
-      <c r="BU30" s="0"/>
-      <c r="BV30" s="0"/>
-      <c r="BW30" s="0"/>
-      <c r="BX30" s="0"/>
-      <c r="BY30" s="0"/>
-      <c r="BZ30" s="0"/>
-      <c r="CA30" s="0"/>
-      <c r="CB30" s="0"/>
-      <c r="CC30" s="0"/>
-      <c r="CD30" s="0"/>
-      <c r="CE30" s="0"/>
-      <c r="CF30" s="0"/>
-      <c r="CG30" s="0"/>
-      <c r="CH30" s="0"/>
-      <c r="CI30" s="0"/>
-      <c r="CJ30" s="0"/>
-      <c r="CK30" s="0"/>
-      <c r="CL30" s="0"/>
-      <c r="CM30" s="0"/>
-      <c r="CN30" s="0"/>
-      <c r="CO30" s="0"/>
-      <c r="CP30" s="0"/>
-      <c r="CQ30" s="0"/>
-      <c r="CR30" s="0"/>
-      <c r="CS30" s="0"/>
-      <c r="CT30" s="0"/>
-      <c r="CU30" s="0"/>
-      <c r="CV30" s="0"/>
-      <c r="CW30" s="0"/>
-      <c r="CX30" s="0"/>
-      <c r="CY30" s="0"/>
-      <c r="CZ30" s="0"/>
-      <c r="DA30" s="0"/>
-      <c r="DB30" s="0"/>
-      <c r="DC30" s="0"/>
-      <c r="DD30" s="0"/>
-      <c r="DE30" s="0"/>
-      <c r="DF30" s="0"/>
-      <c r="DG30" s="0"/>
-      <c r="DH30" s="0"/>
-      <c r="DI30" s="0"/>
-      <c r="DJ30" s="0"/>
-      <c r="DK30" s="0"/>
-      <c r="DL30" s="0"/>
-      <c r="DM30" s="0"/>
-      <c r="DN30" s="0"/>
-      <c r="DO30" s="0"/>
-      <c r="DP30" s="0"/>
-      <c r="DQ30" s="0"/>
-      <c r="DR30" s="0"/>
-      <c r="DS30" s="0"/>
-      <c r="DT30" s="0"/>
-      <c r="DU30" s="0"/>
-      <c r="DV30" s="0"/>
-      <c r="DW30" s="0"/>
-      <c r="DX30" s="0"/>
-      <c r="DY30" s="0"/>
-      <c r="DZ30" s="0"/>
-      <c r="EA30" s="0"/>
-      <c r="EB30" s="0"/>
-      <c r="EC30" s="0"/>
-      <c r="ED30" s="0"/>
-      <c r="EE30" s="0"/>
-      <c r="EF30" s="0"/>
-      <c r="EG30" s="0"/>
-      <c r="EH30" s="0"/>
-      <c r="EI30" s="0"/>
-      <c r="EJ30" s="0"/>
-      <c r="EK30" s="0"/>
-      <c r="EL30" s="0"/>
-      <c r="EM30" s="0"/>
-      <c r="EN30" s="0"/>
-      <c r="EO30" s="0"/>
-      <c r="EP30" s="0"/>
-      <c r="EQ30" s="0"/>
-      <c r="ER30" s="0"/>
-      <c r="ES30" s="0"/>
-      <c r="ET30" s="0"/>
-      <c r="EU30" s="0"/>
-      <c r="EV30" s="0"/>
-      <c r="EW30" s="0"/>
-      <c r="EX30" s="0"/>
-      <c r="EY30" s="0"/>
-      <c r="EZ30" s="0"/>
-      <c r="FA30" s="0"/>
-      <c r="FB30" s="0"/>
-      <c r="FC30" s="0"/>
-      <c r="FD30" s="0"/>
-      <c r="FE30" s="0"/>
-      <c r="FF30" s="0"/>
-      <c r="FG30" s="0"/>
-      <c r="FH30" s="0"/>
-      <c r="FI30" s="0"/>
-      <c r="FJ30" s="0"/>
-      <c r="FK30" s="0"/>
-      <c r="FL30" s="0"/>
-      <c r="FM30" s="0"/>
-      <c r="FN30" s="0"/>
-      <c r="FO30" s="0"/>
-      <c r="FP30" s="0"/>
-      <c r="FQ30" s="0"/>
-      <c r="FR30" s="0"/>
-      <c r="FS30" s="0"/>
-      <c r="FT30" s="0"/>
-      <c r="FU30" s="0"/>
-      <c r="FV30" s="0"/>
-      <c r="FW30" s="0"/>
-      <c r="FX30" s="0"/>
-      <c r="FY30" s="0"/>
-      <c r="FZ30" s="0"/>
-      <c r="GA30" s="0"/>
-      <c r="GB30" s="0"/>
-      <c r="GC30" s="0"/>
-      <c r="GD30" s="0"/>
-      <c r="GE30" s="0"/>
-      <c r="GF30" s="0"/>
-      <c r="GG30" s="0"/>
-      <c r="GH30" s="0"/>
-      <c r="GI30" s="0"/>
-      <c r="GJ30" s="0"/>
-      <c r="GK30" s="0"/>
-      <c r="GL30" s="0"/>
-      <c r="GM30" s="0"/>
-      <c r="GN30" s="0"/>
-      <c r="GO30" s="0"/>
-      <c r="GP30" s="0"/>
-      <c r="GQ30" s="0"/>
-      <c r="GR30" s="0"/>
-      <c r="GS30" s="0"/>
-      <c r="GT30" s="0"/>
-      <c r="GU30" s="0"/>
-      <c r="GV30" s="0"/>
-      <c r="GW30" s="0"/>
-      <c r="GX30" s="0"/>
-      <c r="GY30" s="0"/>
-      <c r="GZ30" s="0"/>
-      <c r="HA30" s="0"/>
-      <c r="HB30" s="0"/>
-      <c r="HC30" s="0"/>
-      <c r="HD30" s="0"/>
-      <c r="HE30" s="0"/>
-      <c r="HF30" s="0"/>
-      <c r="HG30" s="0"/>
-      <c r="HH30" s="0"/>
-      <c r="HI30" s="0"/>
-      <c r="HJ30" s="0"/>
-      <c r="HK30" s="0"/>
-      <c r="HL30" s="0"/>
-      <c r="HM30" s="0"/>
-      <c r="HN30" s="0"/>
-      <c r="HO30" s="0"/>
-      <c r="HP30" s="0"/>
-      <c r="HQ30" s="0"/>
-      <c r="HR30" s="0"/>
-      <c r="HS30" s="0"/>
-      <c r="HT30" s="0"/>
-      <c r="HU30" s="0"/>
-      <c r="HV30" s="0"/>
-      <c r="HW30" s="0"/>
-      <c r="HX30" s="0"/>
-      <c r="HY30" s="0"/>
-      <c r="HZ30" s="0"/>
-      <c r="IA30" s="0"/>
-      <c r="IB30" s="0"/>
-      <c r="IC30" s="0"/>
-      <c r="ID30" s="0"/>
-      <c r="IE30" s="0"/>
-      <c r="IF30" s="0"/>
-      <c r="IG30" s="0"/>
-      <c r="IH30" s="0"/>
-      <c r="II30" s="0"/>
-      <c r="IJ30" s="0"/>
-      <c r="IK30" s="0"/>
-      <c r="IL30" s="0"/>
-      <c r="IM30" s="0"/>
-      <c r="IN30" s="0"/>
-      <c r="IO30" s="0"/>
-      <c r="IP30" s="0"/>
-      <c r="IQ30" s="0"/>
-      <c r="IR30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
@@ -9716,25 +8982,31 @@
       <c r="C33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="A34" s="0"/>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
+        <v>101</v>
+      </c>
+      <c r="B35" s="57" t="n">
+        <v>65.1186367</v>
+      </c>
+      <c r="C35" s="57" t="n">
+        <v>65.12657</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
+        <v>102</v>
+      </c>
+      <c r="B36" s="57" t="n">
+        <v>-147.432975</v>
+      </c>
+      <c r="C36" s="57" t="n">
+        <v>-147.496908333</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
@@ -9743,40 +9015,45 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
+        <v>103</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>77.51</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>77.5</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
+      <c r="B40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9852,7 +9129,7 @@
       <c r="A2" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="59" t="n">
+      <c r="B2" s="58" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">

--- a/in/jgr2013_2cam.xlsx
+++ b/in/jgr2013_2cam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -426,7 +426,7 @@
     <t>RayAngleMapping</t>
   </si>
   <si>
-    <t>astrometry</t>
+    <t>arbitrary</t>
   </si>
   <si>
     <t>reqStartUT</t>
@@ -1314,10 +1314,10 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1952,8 +1952,8 @@
   </sheetPr>
   <dimension ref="A1:IR41"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>

--- a/in/jgr2013_2cam.xlsx
+++ b/in/jgr2013_2cam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1314,9 +1314,9 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1532,7 +1532,7 @@
       <c r="C18" s="7"/>
       <c r="G18" s="0"/>
       <c r="H18" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/jgr2013_2cam.xlsx
+++ b/in/jgr2013_2cam.xlsx
@@ -1532,7 +1532,7 @@
       <c r="C18" s="7"/>
       <c r="G18" s="0"/>
       <c r="H18" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/in/jgr2013_2cam.xlsx
+++ b/in/jgr2013_2cam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -372,7 +372,7 @@
     <t>reactionParam</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/vjeinfc.h5</t>
+    <t>transcarutils/precompute/vjeinfc.h5</t>
   </si>
   <si>
     <t>altitudePreload</t>
@@ -519,7 +519,7 @@
     <t>FOVmaxLengthKM</t>
   </si>
   <si>
-    <t>noiseStd</t>
+    <t>noiseLam</t>
   </si>
   <si>
     <t>CCDBias</t>
@@ -1317,7 +1317,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1502,7 +1502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1953,9 +1953,9 @@
   <dimension ref="A1:IR41"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="1" sqref="H16 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4049,11 +4049,11 @@
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="47" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="C9" s="47" t="n">
-        <v>100000000</v>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -9080,7 +9080,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="1" sqref="H16 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/in/jgr2013_2cam.xlsx
+++ b/in/jgr2013_2cam.xlsx
@@ -19,6 +19,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm_Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +38,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -88,10 +92,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -104,7 +106,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -118,10 +119,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -134,10 +133,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -153,7 +150,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -177,7 +173,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -192,7 +187,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -209,7 +203,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -223,7 +216,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -247,7 +239,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -264,7 +255,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -280,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
   <si>
     <t>Sim</t>
   </si>
@@ -294,12 +284,6 @@
     <t>Recon</t>
   </si>
   <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
     <t>Transcar</t>
   </si>
   <si>
@@ -531,7 +515,7 @@
     <t>timeShiftSec</t>
   </si>
   <si>
-    <t>frameRateHz</t>
+    <t>kineticsec</t>
   </si>
   <si>
     <t>rotCCW</t>
@@ -703,11 +687,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00E+000"/>
+    <numFmt numFmtId="166" formatCode="0.00E+000"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -865,7 +848,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -944,13 +927,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -997,7 +973,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1006,12 +982,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1098,14 +1074,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1142,18 +1110,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1178,15 +1134,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1214,7 +1170,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1312,519 +1268,459 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.13775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.69897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="5"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="8"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="F7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="7"/>
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="11"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="11" t="s">
-        <v>22</v>
+      <c r="F10" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="5"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="7"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="1" t="n">
+      <c r="F14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="14" t="s">
-        <v>28</v>
+      <c r="F15" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="14" t="s">
-        <v>30</v>
+      <c r="F16" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="7"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="1" t="n">
+      <c r="F18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="F19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="7"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
+      <c r="F21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="7"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="7"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="7"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="7"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="7"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="19"/>
       <c r="C27" s="7"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
+      <c r="F27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="7"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="12" t="n">
+      <c r="F28" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
+      <c r="F30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="22" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="19" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="19"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
+      <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
+      <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="G34" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="0"/>
+      <c r="C34" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="0"/>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="0"/>
+      <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="11"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="13" t="n">
+      <c r="F39" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="s">
-        <v>52</v>
+      <c r="A40" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="D40" s="28" t="n">
+      <c r="D40" s="26" t="n">
         <v>0.1</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
-        <v>53</v>
+      <c r="E40" s="27"/>
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="D41" s="30" t="n">
+      <c r="D41" s="28" t="n">
         <v>1.66666</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="s">
-        <v>54</v>
+      <c r="E41" s="29"/>
+      <c r="F41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="D42" s="30" t="n">
+      <c r="D42" s="28" t="n">
         <v>-3.8</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="27" t="s">
-        <v>55</v>
+      <c r="A43" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
-      <c r="D43" s="30" t="n">
+      <c r="D43" s="28" t="n">
         <v>7.1</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="s">
-        <v>56</v>
+      <c r="E43" s="29"/>
+      <c r="F43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="30" t="n">
+      <c r="D44" s="28" t="n">
         <v>90</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="s">
-        <v>57</v>
+      <c r="E44" s="29"/>
+      <c r="F44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="32" t="n">
+      <c r="D45" s="30" t="n">
         <v>989</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="31"/>
+      <c r="F45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
       <c r="D47" s="5"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
@@ -1832,22 +1728,20 @@
       <c r="C48" s="0"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="7"/>
       <c r="E49" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="11"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
@@ -1855,83 +1749,73 @@
       <c r="E50" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
-      <c r="F52" s="36"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
-      <c r="F53" s="37"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
-      <c r="F54" s="38"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
-      <c r="F55" s="37"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
-      <c r="F56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="34"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27" t="s">
-        <v>68</v>
+      <c r="A60" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1955,27 +1839,26 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="1" sqref="H16 B9"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="22.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="252" min="4" style="40" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="35" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="252" min="4" style="35" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="42"/>
+      <c r="B1" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="37"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -2227,7 +2110,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2486,16 +2369,16 @@
       <c r="IR2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="43" t="n">
+      <c r="A3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="n">
+      <c r="C3" s="38" t="n">
         <v>3.1436</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -2746,13 +2629,13 @@
       <c r="IR3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="43" t="n">
+      <c r="A4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="43" t="n">
+      <c r="C4" s="38" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3006,8 +2889,8 @@
       <c r="IR4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>75</v>
+      <c r="A5" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3266,13 +3149,13 @@
       <c r="IR5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="43" t="n">
+      <c r="A6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="38" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="43" t="n">
+      <c r="C6" s="38" t="n">
         <v>88.3</v>
       </c>
       <c r="D6" s="0"/>
@@ -3526,13 +3409,13 @@
       <c r="IR6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="43" t="n">
+      <c r="A7" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="43" t="n">
+      <c r="C7" s="38" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3786,8 +3669,8 @@
       <c r="IR7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>78</v>
+      <c r="A8" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4047,7 +3930,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -4307,12 +4190,12 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="47" t="n">
+        <v>78</v>
+      </c>
+      <c r="B10" s="42" t="n">
         <v>100000000</v>
       </c>
-      <c r="C10" s="47" t="n">
+      <c r="C10" s="42" t="n">
         <v>100000000</v>
       </c>
       <c r="D10" s="0"/>
@@ -4566,8 +4449,8 @@
       <c r="IR10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>81</v>
+      <c r="A11" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4823,9 +4706,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="48"/>
+        <v>80</v>
+      </c>
+      <c r="B12" s="43"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5079,7 +4962,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5334,13 +5217,13 @@
       <c r="IR13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="50" t="n">
+      <c r="A14" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="45" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="50" t="n">
+      <c r="C14" s="45" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5594,11 +5477,11 @@
       <c r="IR14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51" t="s">
-        <v>85</v>
+      <c r="A15" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5850,11 +5733,11 @@
       <c r="IR15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51" t="s">
-        <v>86</v>
+      <c r="A16" s="46" t="s">
+        <v>84</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6106,11 +5989,11 @@
       <c r="IR16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6363,7 +6246,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6620,7 +6503,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="56"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6873,10 +6756,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="56"/>
+        <v>87</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7129,10 +7012,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="56"/>
+        <v>88</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7385,7 +7268,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7641,7 +7524,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7897,7 +7780,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8407,7 +8290,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8417,7 +8300,7 @@
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="1"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
@@ -8667,7 +8550,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8677,7 +8560,7 @@
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="1"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
@@ -8932,7 +8815,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8943,7 +8826,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8954,7 +8837,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8965,7 +8848,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -8976,7 +8859,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8988,23 +8871,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="57" t="n">
+        <v>99</v>
+      </c>
+      <c r="B35" s="52" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="57" t="n">
+      <c r="C35" s="52" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="57" t="n">
+        <v>100</v>
+      </c>
+      <c r="B36" s="52" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="57" t="n">
+      <c r="C36" s="52" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9015,7 +8898,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9026,7 +8909,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9037,24 +8920,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -9080,56 +8963,56 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="1" sqref="H16 A8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="58" t="n">
+        <v>119</v>
+      </c>
+      <c r="B2" s="53" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -9165,7 +9048,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>-1.5</v>
@@ -9203,19 +9086,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.5</v>
@@ -9253,7 +9136,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9291,83 +9174,83 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5000</v>
@@ -9405,45 +9288,45 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="47" t="n">
+        <v>130</v>
+      </c>
+      <c r="B12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="C12" s="47" t="n">
+      <c r="C12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="D12" s="47" t="n">
+      <c r="D12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="E12" s="47" t="n">
+      <c r="E12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="F12" s="47" t="n">
+      <c r="F12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="G12" s="47" t="n">
+      <c r="G12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="H12" s="47" t="n">
+      <c r="H12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="I12" s="47" t="n">
+      <c r="I12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="J12" s="47" t="n">
+      <c r="J12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="K12" s="47" t="n">
+      <c r="K12" s="42" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="L12" s="47" t="n">
+      <c r="L12" s="42" t="n">
         <v>2800000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -9481,7 +9364,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9519,7 +9402,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -9557,7 +9440,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.5</v>
@@ -9595,7 +9478,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -9633,7 +9516,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.2</v>
